--- a/Document/BingqiangZhou/document/工作日志.xlsx
+++ b/Document/BingqiangZhou/document/工作日志.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF36772C-0A3A-4288-889D-E8121D871D7C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,30 +27,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一、系统分析、
-二、数据库分析、
-三、action分析、
-四、完成登录、注册、修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>明日工作</t>
+  </si>
+  <si>
+    <t>一、系统分析（完成）
+二、数据库分析（完成）、
+三、action分析（完成）、
+四、完成登录、注册、修改密码（完成）</t>
+  </si>
+  <si>
+    <t>一、上传文件功能
+二、在线测试模块
+三、完善用户管理</t>
+  </si>
+  <si>
+    <r>
+      <t>一、上传文件（完成）
+二、在线测试模块（完成）
+三、完善用户管理（已完成，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>一、测试用户管理模块并完善api文档
+二、完善原型设计图
+三、完善系统分析书与需求分析书</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -62,7 +109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -79,18 +126,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -98,12 +148,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,9 +231,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +283,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,34 +475,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <f ca="1">TODAY()</f>
+    <row r="2" spans="1:3" ht="60">
+      <c r="A2" s="1">
         <v>43402</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45">
+      <c r="A3" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45">
+      <c r="A4" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -426,12 +538,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -439,12 +551,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/BingqiangZhou/document/工作日志.xlsx
+++ b/Document/BingqiangZhou/document/工作日志.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF36772C-0A3A-4288-889D-E8121D871D7C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23FCE22-5625-48D6-B8F6-E403EA1A0D38}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,20 +41,20 @@
 三、完善用户管理</t>
   </si>
   <si>
+    <t>一、测试用户管理模块并完善api文档
+二、完善原型设计图
+三、完善系统分析书与需求分析书</t>
+  </si>
+  <si>
+    <t>一、测试用户管理模块并完善api文档
+二、完善原型设计图(完成)
+三、完善系统分析书与需求分析书</t>
+  </si>
+  <si>
     <r>
       <t>一、上传文件（完成）
 二、在线测试模块（完成）
-三、完善用户管理（已完成，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>待测试</t>
+三、完善用户管理（已完成</t>
     </r>
     <r>
       <rPr>
@@ -68,16 +68,23 @@
     </r>
   </si>
   <si>
-    <t>一、测试用户管理模块并完善api文档
-二、完善原型设计图
-三、完善系统分析书与需求分析书</t>
+    <t>一、重建工程
+二、加入Help Page
+三、加入Test API 组件</t>
+  </si>
+  <si>
+    <t>一、完成后台API</t>
+  </si>
+  <si>
+    <t>一、完成后台API
+二、搜集测试数据</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +97,6 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,6 +138,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -516,10 +520,10 @@
         <v>43403</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45">
@@ -528,6 +532,30 @@
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45">
+      <c r="A5" s="5">
+        <v>43405</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6">
+        <v>43406</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="6">
+        <v>43407</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
